--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_STATUS_MST_DTL.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_STATUS_MST_DTL.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2549EAA-E4D4-4EED-A7AA-FCA2D34C57E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E533FEAB-6D2F-4118-9D23-BCB5AAD87FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="TBL_EXP_FIN_ANAL_STATUS_MST" sheetId="1" r:id="rId1"/>
     <sheet name="TBL_EXP_FIN_ANAL_STATUS_DTL" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TBL_EXP_FIN_ANAL_STATUS_DTL!$A$5:$H$269</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -990,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1421,10 +1424,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1CB576-ED54-4F7F-8834-E99969009BBB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1535,7 +1539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -2237,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -2523,7 +2527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -2549,7 +2553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" s="1">
         <v>6</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" s="1">
         <v>6</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" s="1">
         <v>6</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" s="1">
         <v>7</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" s="1">
         <v>7</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" s="1">
         <v>7</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" s="1">
         <v>8</v>
       </c>
@@ -2875,7 +2879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" s="1">
         <v>8</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" s="1">
         <v>9</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" s="1">
         <v>9</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" s="1">
         <v>10</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" s="1">
         <v>10</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" s="1">
         <v>10</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="1">
         <v>11</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" s="1">
         <v>11</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" s="1">
         <v>11</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" s="1">
         <v>5</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" s="1">
         <v>5</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" s="1">
         <v>5</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" s="1">
         <v>6</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" s="1">
         <v>6</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" s="1">
         <v>6</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" s="1">
         <v>7</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" s="1">
         <v>7</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" s="1">
         <v>7</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" s="1">
         <v>8</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" s="1">
         <v>8</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" s="1">
         <v>9</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" s="1">
         <v>9</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" s="1">
         <v>10</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="1">
         <v>10</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="1">
         <v>10</v>
       </c>
@@ -3908,7 +3912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="1">
         <v>11</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="1">
         <v>11</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="1">
         <v>12</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="1">
         <v>12</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="1">
         <v>12</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="1">
         <v>13</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="1">
         <v>13</v>
       </c>
@@ -4116,7 +4120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="1">
         <v>13</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="1">
         <v>14</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="1">
         <v>14</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="1">
         <v>14</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="1">
         <v>15</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="1">
         <v>15</v>
       </c>
@@ -4272,7 +4276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="1">
         <v>15</v>
       </c>
@@ -4298,7 +4302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="1">
         <v>16</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="1">
         <v>16</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -4523,7 +4527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="1">
         <v>3</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="1">
         <v>3</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="1">
         <v>3</v>
       </c>
@@ -4601,7 +4605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="1">
         <v>4</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -4647,7 +4651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="1">
         <v>4</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="1">
         <v>5</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="1">
         <v>5</v>
       </c>
@@ -4716,7 +4720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="1">
         <v>6</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="1">
         <v>6</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="1">
         <v>6</v>
       </c>
@@ -4817,7 +4821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="1">
         <v>7</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="1">
         <v>7</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="1">
         <v>7</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -4921,7 +4925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="1">
         <v>8</v>
       </c>
@@ -4947,7 +4951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="1">
         <v>8</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="1">
         <v>9</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="1">
         <v>9</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="1">
         <v>9</v>
       </c>
@@ -5051,7 +5055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" s="1">
         <v>1</v>
       </c>
@@ -5103,7 +5107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="1">
         <v>3</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -5337,7 +5341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="1">
         <v>4</v>
       </c>
@@ -5363,7 +5367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="1">
         <v>5</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158" s="1">
         <v>5</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="1">
         <v>6</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" hidden="1">
       <c r="A161" s="1">
         <v>6</v>
       </c>
@@ -5519,7 +5523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="1">
         <v>7</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" hidden="1">
       <c r="A164" s="1">
         <v>7</v>
       </c>
@@ -5623,7 +5627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" hidden="1">
       <c r="A166" s="1">
         <v>8</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="1">
         <v>8</v>
       </c>
@@ -5675,7 +5679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="1">
         <v>9</v>
       </c>
@@ -5721,7 +5725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="1">
         <v>9</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="1">
         <v>10</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" s="1">
         <v>10</v>
       </c>
@@ -5836,7 +5840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="1">
         <v>11</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="1">
         <v>11</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -5908,7 +5912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="1">
         <v>1</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" hidden="1">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="1">
         <v>3</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="1">
         <v>3</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" hidden="1">
       <c r="A186" s="1">
         <v>4</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" hidden="1">
       <c r="A188" s="1">
         <v>4</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" hidden="1">
       <c r="A189" s="1">
         <v>5</v>
       </c>
@@ -6199,7 +6203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" hidden="1">
       <c r="A190" s="1">
         <v>5</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" hidden="1">
       <c r="A192" s="1">
         <v>6</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="1">
         <v>6</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" s="1">
         <v>7</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" s="1">
         <v>7</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="1">
         <v>8</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="1">
         <v>8</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" hidden="1">
       <c r="A201" s="1">
         <v>9</v>
       </c>
@@ -6484,7 +6488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" s="1">
         <v>9</v>
       </c>
@@ -6556,7 +6560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" s="1">
         <v>10</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="1">
         <v>10</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="1">
         <v>1</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" hidden="1">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -6712,7 +6716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="1">
         <v>3</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" hidden="1">
       <c r="A215" s="1">
         <v>3</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" s="1">
         <v>4</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" s="1">
         <v>4</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="1">
         <v>5</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" s="1">
         <v>5</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" hidden="1">
       <c r="A222" s="1">
         <v>6</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="1">
         <v>6</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" hidden="1">
       <c r="A225" s="1">
         <v>7</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" hidden="1">
       <c r="A227" s="1">
         <v>7</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" s="1">
         <v>8</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" s="1">
         <v>8</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" hidden="1">
       <c r="A231" s="1">
         <v>9</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" hidden="1">
       <c r="A232" s="1">
         <v>9</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" hidden="1">
       <c r="A234" s="1">
         <v>10</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1">
       <c r="A235" s="1">
         <v>10</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1">
       <c r="A237" s="1">
         <v>11</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" s="1">
         <v>11</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" hidden="1">
       <c r="A240" s="1">
         <v>12</v>
       </c>
@@ -7471,7 +7475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" hidden="1">
       <c r="A241" s="1">
         <v>12</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" hidden="1">
       <c r="A243" s="1">
         <v>13</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" hidden="1">
       <c r="A244" s="1">
         <v>13</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" hidden="1">
       <c r="A246" s="1">
         <v>14</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" hidden="1">
       <c r="A247" s="1">
         <v>14</v>
       </c>
@@ -7673,7 +7677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" hidden="1">
       <c r="A249" s="1">
         <v>15</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" hidden="1">
       <c r="A251" s="1">
         <v>15</v>
       </c>
@@ -7742,7 +7746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" hidden="1">
       <c r="A252" s="1">
         <v>16</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" hidden="1">
       <c r="A253" s="1">
         <v>16</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" hidden="1">
       <c r="A255" s="1">
         <v>17</v>
       </c>
@@ -7834,7 +7838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" hidden="1">
       <c r="A256" s="1">
         <v>17</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" hidden="1">
       <c r="A258" s="1">
         <v>18</v>
       </c>
@@ -7903,7 +7907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" hidden="1">
       <c r="A259" s="1">
         <v>18</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" hidden="1">
       <c r="A261" s="1">
         <v>19</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" hidden="1">
       <c r="A262" s="1">
         <v>19</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" hidden="1">
       <c r="A264" s="1">
         <v>20</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" hidden="1">
       <c r="A265" s="1">
         <v>20</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" hidden="1">
       <c r="A267" s="1">
         <v>21</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" hidden="1">
       <c r="A268" s="1">
         <v>21</v>
       </c>
@@ -8166,6 +8170,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:H269" xr:uid="{8A1CB576-ED54-4F7F-8834-E99969009BBB}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="재무상태표"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
